--- a/BaroAngEditor/BaroAngEditor/bin/Debug/正则.xlsx
+++ b/BaroAngEditor/BaroAngEditor/bin/Debug/正则.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\迅雷下载\barotrauma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub20211201\GameTools\BaroAngEditor\BaroAngEditor\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>output 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>output 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^(12[7-9][0-9]|13[0-5][0-9]|23[4-5][0-9]|32[1-9][0-9]|33[0-5][0-9]|200[0-9]|300[0-9])$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^(10[0-9][0-9]|11[0-7][0-9]|20[1-9][0-9]|21[0-7][0-9]|30[1-9][0-9]|31[0-6][0-9])$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>^(11[8-9][0-9]|12[0-6][0-9]|21[8-9][0-9]|22[0-9][0-9]|23[0-3][0-9]|31[7-9][0-9]|320[0-9])$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,6 +141,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -151,9 +172,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -181,20 +199,23 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,59 +497,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B10" sqref="B10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="14" customFormat="1">
+    <row r="1" spans="1:33" s="13" customFormat="1">
       <c r="A1" s="3"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="17" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="17" t="s">
+      <c r="G1" s="16"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="13"/>
-      <c r="AD1" s="13"/>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-    </row>
-    <row r="2" spans="1:33" s="14" customFormat="1">
+      <c r="K1" s="16"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+    </row>
+    <row r="2" spans="1:33" s="13" customFormat="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -561,67 +583,67 @@
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-    </row>
-    <row r="3" spans="1:33" s="10" customFormat="1">
+      <c r="N2" s="11"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+    </row>
+    <row r="3" spans="1:33" s="9" customFormat="1">
       <c r="A3" s="3"/>
-      <c r="B3" s="19">
+      <c r="B3" s="15">
         <f>B2+$A2*1000</f>
         <v>1000</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="15">
         <f>C2+$A2*1000</f>
         <v>1179</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15">
         <f>F2+$A2*1000</f>
         <v>1180</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="15">
         <f>G2+$A2*1000</f>
         <v>1269</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19">
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15">
         <f>J2+$A2*1000</f>
         <v>1270</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="15">
         <f>K2+$A2*1000</f>
         <v>1359</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="1:33" s="14" customFormat="1">
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:33" s="13" customFormat="1">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <f>F4-1</f>
@@ -633,103 +655,110 @@
         <v>180</v>
       </c>
       <c r="G4" s="2">
-        <f>290-1</f>
-        <v>289</v>
+        <v>339</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="1">
         <f>G4+1</f>
-        <v>290</v>
+        <v>340</v>
       </c>
       <c r="K4" s="1">
-        <f>MOD(B4-1,360)</f>
         <v>359</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-    </row>
-    <row r="5" spans="1:33" s="10" customFormat="1">
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9</v>
+      </c>
+      <c r="N4" s="11"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+    </row>
+    <row r="5" spans="1:33" s="9" customFormat="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="19">
+      <c r="B5" s="15">
         <f>B4+$A4*1000</f>
-        <v>2000</v>
-      </c>
-      <c r="C5" s="19">
+        <v>2010</v>
+      </c>
+      <c r="C5" s="15">
         <f>C4+$A4*1000</f>
         <v>2179</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
         <f>F4+$A4*1000</f>
         <v>2180</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="15">
         <f>G4+$A4*1000</f>
-        <v>2289</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19">
-        <f t="shared" ref="J5" si="0">J4+$A4*1000</f>
-        <v>2290</v>
-      </c>
-      <c r="K5" s="19">
-        <f t="shared" ref="K5" si="1">K4+$A4*1000</f>
+        <v>2339</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15">
+        <f t="shared" ref="J5:L5" si="0">J4+$A4*1000</f>
+        <v>2340</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" ref="K5:M5" si="1">K4+$A4*1000</f>
         <v>2359</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="11"/>
-    </row>
-    <row r="6" spans="1:33" s="14" customFormat="1">
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="1"/>
+        <v>2009</v>
+      </c>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:33" s="13" customFormat="1">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="1">
         <f>M6+1</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1">
-        <f>180-1</f>
-        <v>179</v>
+        <f>F6-1</f>
+        <v>169</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2">
-        <f>C6+1</f>
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G6" s="2">
         <f>J6-1</f>
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="1">
-        <f>240</f>
-        <v>240</v>
+        <f>210</f>
+        <v>210</v>
       </c>
       <c r="K6" s="1">
         <f>360-1</f>
@@ -739,84 +768,86 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>5</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-    </row>
-    <row r="7" spans="1:33" s="10" customFormat="1">
+        <v>9</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+    </row>
+    <row r="7" spans="1:33" s="9" customFormat="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="19">
+      <c r="B7" s="15">
         <f>B6+$A6*1000</f>
-        <v>3006</v>
-      </c>
-      <c r="C7" s="19">
+        <v>3010</v>
+      </c>
+      <c r="C7" s="15">
         <f>C6+$A6*1000</f>
-        <v>3179</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19">
+        <v>3169</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15">
         <f t="shared" ref="F7" si="2">F6+$A6*1000</f>
-        <v>3180</v>
-      </c>
-      <c r="G7" s="19">
+        <v>3170</v>
+      </c>
+      <c r="G7" s="15">
         <f t="shared" ref="G7" si="3">G6+$A6*1000</f>
-        <v>3239</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19">
+        <v>3209</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15">
         <f t="shared" ref="J7" si="4">J6+$A6*1000</f>
-        <v>3240</v>
-      </c>
-      <c r="K7" s="19">
+        <v>3210</v>
+      </c>
+      <c r="K7" s="15">
         <f t="shared" ref="K7" si="5">K6+$A6*1000</f>
         <v>3359</v>
       </c>
-      <c r="L7" s="19">
+      <c r="L7" s="15">
         <f t="shared" ref="L7" si="6">L6+$A6*1000</f>
         <v>3000</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="15">
         <f t="shared" ref="M7" si="7">M6+$A6*1000</f>
-        <v>3005</v>
-      </c>
-      <c r="N7" s="11"/>
+        <v>3009</v>
+      </c>
+      <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="9"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="8"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -838,21 +869,22 @@
       <c r="AG8" s="3"/>
     </row>
     <row r="9" spans="1:33">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="B9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -873,21 +905,22 @@
       <c r="AG9" s="3"/>
     </row>
     <row r="10" spans="1:33">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="B10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -908,139 +941,35 @@
       <c r="AG10" s="3"/>
     </row>
     <row r="11" spans="1:33">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:33">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="B15" s="8"/>
+      <c r="B12" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B8:M8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A10:M10"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A8:M8"/>
-    <mergeCell ref="A11:M11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>